--- a/analysis/tcam_power.xlsx
+++ b/analysis/tcam_power.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phchen\Desktop\TCAM_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NI-RRAM-Test-Setup/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FC9E8-D0D4-418C-95E3-9D6DFC70B8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F8481-6B9B-BF46-8EBC-AFF940736881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{5742EEE7-CEC0-43AA-9760-23F3F9542A83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{5742EEE7-CEC0-43AA-9760-23F3F9542A83}"/>
   </bookViews>
   <sheets>
     <sheet name="preliminary" sheetId="3" r:id="rId1"/>
     <sheet name="SA_1bit" sheetId="1" r:id="rId2"/>
-    <sheet name="SA_2bit" sheetId="2" r:id="rId3"/>
+    <sheet name="Plot" sheetId="4" r:id="rId3"/>
+    <sheet name="Accuracy" sheetId="5" r:id="rId4"/>
+    <sheet name="SA_2bit" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="36">
   <si>
     <t>sa_bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +137,42 @@
   <si>
     <t>wl_ext_3</t>
   </si>
+  <si>
+    <t>SA power</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>Core power</t>
+  </si>
+  <si>
+    <t>Total power</t>
+  </si>
+  <si>
+    <t>SA Power</t>
+  </si>
+  <si>
+    <t>Core Power</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>HW@
+200MHz</t>
+  </si>
+  <si>
+    <t>HW@
+50MHz</t>
+  </si>
+  <si>
+    <t>HW@
+10MHz</t>
+  </si>
 </sst>
 </file>
 
@@ -144,14 +182,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -191,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,9 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,8 +265,3108 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power vs. Frequency Scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plot!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plot!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plot!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42497000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29231999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15215000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1680000000000009E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E00-4148-A9E0-7D916E5785F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plot!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Core Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plot!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plot!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9722000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78430000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E00-4148-A9E0-7D916E5785F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1049978448"/>
+        <c:axId val="1049860752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1049978448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049860752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1049860752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power (mW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049978448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power vs. Frequency Scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plot!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plot!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plot!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3971700000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8510199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93645000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20778000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA63-4144-AAA7-BED6306189A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1081551184"/>
+        <c:axId val="1081571904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1081551184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081571904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081571904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Core Power (mW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081551184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-32E3-F74F-95C2-D21FE2017B11}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Accuracy!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HW@
+200MHz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HW@
+50MHz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HW@
+10MHz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Accuracy!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71562499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32E3-F74F-95C2-D21FE2017B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1044752864"/>
+        <c:axId val="1114222544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1044752864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114222544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1114222544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Omniglot Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044752864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9992AC-F986-E249-B71C-5FC3096D1B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D92957-FE4D-304C-8D1F-B2D8941FE625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221511</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FACDFF-DB01-B347-BDAD-95FADFBC8D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,19 +3668,19 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +3703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +3731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -608,7 +3749,7 @@
         <v>67.84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -626,7 +3767,7 @@
         <v>162.47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -644,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -662,7 +3803,7 @@
         <v>60612.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -674,7 +3815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>15</v>
       </c>
@@ -686,7 +3827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G10">
         <f>ROUND(G9*10^9,2)</f>
         <v>46.06</v>
@@ -695,7 +3836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,7 +3859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -740,7 +3881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -758,7 +3899,7 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -776,7 +3917,7 @@
         <v>777.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -788,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -803,7 +3944,7 @@
         <v>78465</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>14</v>
       </c>
@@ -815,7 +3956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>15</v>
       </c>
@@ -827,7 +3968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G21">
         <f>ROUND(G20*10^9,2)</f>
         <v>37.24</v>
@@ -844,26 +3985,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5269B42-B85D-46E9-B0DA-5C849E3533D7}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -874,7 +4015,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,7 +4038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -926,7 +4067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -953,7 +4094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -973,7 +4114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -990,7 +4131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -998,7 +4139,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1006,40 +4147,953 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f>SUM(E3:E3)/1000</f>
+        <v>4.1680000000000009E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <f>SUM(E4:E4)/1000</f>
+        <v>0.16610000000000003</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <f>SUM(E3:E4)/1000</f>
+        <v>0.20778000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f>((128*H3)/10^9)*G11/32</f>
+        <v>8.311200000000001E-8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f>ROUND(G12*10^9,2)</f>
+        <v>83.11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>179</v>
+      </c>
+      <c r="C16">
+        <v>0.13</v>
+      </c>
+      <c r="D16">
+        <f>H17</f>
+        <v>0.85</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E17" si="0">B16*D16</f>
+        <v>152.15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <f>1000/H15</f>
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>713</v>
+      </c>
+      <c r="C17">
+        <v>8.67</v>
+      </c>
+      <c r="D17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>784.30000000000007</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1.8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1.8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <f>SUM(E16:E16)/1000</f>
+        <v>0.15215000000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <f>SUM(E17:E17)/1000</f>
+        <v>0.78430000000000011</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <f>SUM(E16:E17)/1000</f>
+        <v>0.93645</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <f>((128*H16)/10^9)*G24/32</f>
+        <v>7.4916000000000007E-8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f>ROUND(G25*10^9,2)</f>
+        <v>74.92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>336</v>
+      </c>
+      <c r="C29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D29">
+        <f>H30</f>
+        <v>0.87</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E30" si="1">B29*D29</f>
+        <v>292.32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <f>1000/H28</f>
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1417</v>
+      </c>
+      <c r="C30">
+        <v>8.1</v>
+      </c>
+      <c r="D30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1558.7</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>1.8</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>1.8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <f>SUM(E29:E29)/1000</f>
+        <v>0.29231999999999997</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <f>SUM(E30:E30)/1000</f>
+        <v>1.5587</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37">
+        <f>SUM(E29:E30)/1000</f>
+        <v>1.8510199999999999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <f>((128*H29)/10^9)*G37/32</f>
+        <v>7.4040799999999997E-8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f>ROUND(G38*10^9,2)</f>
+        <v>74.040000000000006</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>467</v>
+      </c>
+      <c r="C42">
+        <v>0.154</v>
+      </c>
+      <c r="D42">
+        <f>H43</f>
+        <v>0.91</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E43" si="2">B42*D42</f>
+        <v>424.97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <f>1000/H41</f>
+        <v>5</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2702</v>
+      </c>
+      <c r="C43">
+        <v>7.47</v>
+      </c>
+      <c r="D43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>2972.2000000000003</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>1.8</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>1.8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <f>SUM(E42:E42)/1000</f>
+        <v>0.42497000000000001</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49">
+        <f>SUM(E43:E43)/1000</f>
+        <v>2.9722000000000004</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50">
+        <f>SUM(E42:E43)/1000</f>
+        <v>3.39717</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <f>((128*H42)/10^9)*G50/32</f>
+        <v>6.7943399999999997E-8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f>ROUND(G51*10^9,2)</f>
+        <v>67.94</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6FB2A-BD34-3344-A269-75A2AE778585}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0.42497000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.9722000000000004</v>
+      </c>
+      <c r="D3">
+        <f>SUM(B3:C3)</f>
+        <v>3.3971700000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0.29231999999999997</v>
+      </c>
+      <c r="C4">
+        <v>1.5587</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">SUM(B4:C4)</f>
+        <v>1.8510199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.15215000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.78430000000000011</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.93645000000000012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4.1680000000000009E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.16610000000000003</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.20778000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA6B34F-5D6D-FF41-B0C7-5D6DCFE4E993}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <f>230/320</f>
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <f>227/320</f>
+        <v>0.70937499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <f>229/320</f>
+        <v>0.71562499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352EBBE5-9D4F-4E28-8A73-9A5779F1AE1A}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">B3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <f>1000/H2</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9">
         <f>SUM(E3:E4)/1000</f>
-        <v>0.20778000000000002</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10">
         <f>((128*H3)/10^9)*G9/32</f>
-        <v>8.311200000000001E-8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11">
         <f>ROUND(G10*10^9,2)</f>
-        <v>83.11</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1050,7 +5104,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,23 +5127,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>179</v>
-      </c>
-      <c r="C14">
-        <v>0.13</v>
-      </c>
       <c r="D14">
         <f>H15</f>
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E15" si="0">B14*D14</f>
-        <v>152.15</v>
+        <f t="shared" ref="E14:E15" si="1">B14*D14</f>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -1102,117 +5150,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>713</v>
-      </c>
-      <c r="C15">
-        <v>8.67</v>
-      </c>
       <c r="D15">
         <v>1.1000000000000001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>784.30000000000007</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.85</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>1.8</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
-        <v>2.8000000000000001E-2</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>1.8</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20">
         <f>SUM(E14:E15)/1000</f>
-        <v>0.93645</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21">
         <f>((128*H14)/10^9)*G20/32</f>
-        <v>7.4916000000000007E-8</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G22">
         <f>ROUND(G21*10^9,2)</f>
-        <v>74.92</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1223,7 +5233,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1246,23 +5256,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25">
-        <v>336</v>
-      </c>
-      <c r="C25">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="D25">
         <f>H26</f>
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E26" si="1">B25*D25</f>
-        <v>292.32</v>
+        <f t="shared" ref="E25:E26" si="2">B25*D25</f>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -1275,117 +5279,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
-        <v>1417</v>
-      </c>
-      <c r="C26">
-        <v>8.1</v>
-      </c>
       <c r="D26">
         <v>1.1000000000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>1558.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="4">
-        <v>0.87</v>
-      </c>
+      <c r="H26" s="4"/>
       <c r="I26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>1.8</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>1.8</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>20</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31">
         <f>SUM(E25:E26)/1000</f>
-        <v>1.8510199999999999</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32">
         <f>((128*H25)/10^9)*G31/32</f>
-        <v>7.4040799999999997E-8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G33">
         <f>ROUND(G32*10^9,2)</f>
-        <v>74.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1396,7 +5362,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1419,23 +5385,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36">
-        <v>467</v>
-      </c>
-      <c r="C36">
-        <v>0.154</v>
-      </c>
       <c r="D36">
         <f>H37</f>
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E37" si="2">B36*D36</f>
-        <v>424.97</v>
+        <f t="shared" ref="E36:E37" si="3">B36*D36</f>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -1448,589 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>2702</v>
-      </c>
-      <c r="C37">
-        <v>7.47</v>
-      </c>
-      <c r="D37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>2972.2000000000003</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>1.8</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39">
-        <v>1.8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42">
-        <f>SUM(E36:E36)/1000</f>
-        <v>0.42497000000000001</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <f>((128*H36)/10^9)*G42/32</f>
-        <v>8.4994000000000007E-9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G44">
-        <f>ROUND(G43*10^9,2)</f>
-        <v>8.5</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352EBBE5-9D4F-4E28-8A73-9A5779F1AE1A}">
-  <dimension ref="A1:I44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3828125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>H4</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">B3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <f>1000/H2</f>
-        <v>100</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <f>SUM(E3:E4)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <f>((128*H3)/10^9)*G9/32</f>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11">
-        <f>ROUND(G10*10^9,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>H15</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E15" si="1">B14*D14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <f>1000/H13</f>
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <f>SUM(E14:E15)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <f>((128*H14)/10^9)*G20/32</f>
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G22">
-        <f>ROUND(G21*10^9,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f>H26</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:E26" si="2">B25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <f>1000/H24</f>
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <f>SUM(E25:E26)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <f>((128*H25)/10^9)*G31/32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G33">
-        <f>ROUND(G32*10^9,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35">
-        <v>200</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f>H37</f>
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ref="E36:E37" si="3">B36*D36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <f>1000/H35</f>
-        <v>5</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +5427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +5436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +5447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +5459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
         <v>15</v>
       </c>
@@ -2093,7 +5471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G44">
         <f>ROUND(G43*10^9,2)</f>
         <v>0</v>
